--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H2">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I2">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J2">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N2">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O2">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P2">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q2">
-        <v>1.505056434123089</v>
+        <v>1.945201725716667</v>
       </c>
       <c r="R2">
-        <v>1.505056434123089</v>
+        <v>17.50681553145</v>
       </c>
       <c r="S2">
-        <v>0.009131895480513725</v>
+        <v>0.01074890648198972</v>
       </c>
       <c r="T2">
-        <v>0.009131895480513725</v>
+        <v>0.01270997595799043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H3">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I3">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J3">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N3">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P3">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q3">
-        <v>8.656817913275516</v>
+        <v>10.10355778027633</v>
       </c>
       <c r="R3">
-        <v>8.656817913275516</v>
+        <v>90.93202002248698</v>
       </c>
       <c r="S3">
-        <v>0.0525250446332471</v>
+        <v>0.0558308150151151</v>
       </c>
       <c r="T3">
-        <v>0.0525250446332471</v>
+        <v>0.06601679135883312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H4">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I4">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J4">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N4">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O4">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P4">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q4">
-        <v>6.153640058609139</v>
+        <v>7.665994244332667</v>
       </c>
       <c r="R4">
-        <v>6.153640058609139</v>
+        <v>68.993948198994</v>
       </c>
       <c r="S4">
-        <v>0.03733707026917055</v>
+        <v>0.04236118760045024</v>
       </c>
       <c r="T4">
-        <v>0.03733707026917055</v>
+        <v>0.05008971627539738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H5">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I5">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J5">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N5">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O5">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P5">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q5">
-        <v>4.439898356370224</v>
+        <v>5.091472643865998</v>
       </c>
       <c r="R5">
-        <v>4.439898356370224</v>
+        <v>45.82325379479399</v>
       </c>
       <c r="S5">
-        <v>0.02693898169878306</v>
+        <v>0.02813474951260457</v>
       </c>
       <c r="T5">
-        <v>0.02693898169878306</v>
+        <v>0.03326775523523706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.38577113457688</v>
+        <v>1.584191</v>
       </c>
       <c r="H6">
-        <v>1.38577113457688</v>
+        <v>4.752573</v>
       </c>
       <c r="I6">
-        <v>0.1901350524066896</v>
+        <v>0.2039202590281707</v>
       </c>
       <c r="J6">
-        <v>0.1901350524066896</v>
+        <v>0.2147775532998296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N6">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O6">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P6">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q6">
-        <v>10.58134361943296</v>
+        <v>12.096693957271</v>
       </c>
       <c r="R6">
-        <v>10.58134361943296</v>
+        <v>72.58016374362599</v>
       </c>
       <c r="S6">
-        <v>0.0642020603249752</v>
+        <v>0.06684460041801103</v>
       </c>
       <c r="T6">
-        <v>0.0642020603249752</v>
+        <v>0.05269331447237163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H7">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I7">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J7">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N7">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O7">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P7">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q7">
-        <v>2.234571988011134</v>
+        <v>2.717614833972223</v>
       </c>
       <c r="R7">
-        <v>2.234571988011134</v>
+        <v>24.45853350575</v>
       </c>
       <c r="S7">
-        <v>0.01355821441346204</v>
+        <v>0.01501715082720952</v>
       </c>
       <c r="T7">
-        <v>0.01355821441346204</v>
+        <v>0.01775693427895726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H8">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I8">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J8">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N8">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P8">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q8">
-        <v>12.85286210918017</v>
+        <v>14.11554294681611</v>
       </c>
       <c r="R8">
-        <v>12.85286210918017</v>
+        <v>127.039886521345</v>
       </c>
       <c r="S8">
-        <v>0.07798444679243803</v>
+        <v>0.07800047114493257</v>
       </c>
       <c r="T8">
-        <v>0.07798444679243803</v>
+        <v>0.09223115994404904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H9">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I9">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J9">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N9">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O9">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P9">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q9">
-        <v>9.136369499182907</v>
+        <v>10.71005613459889</v>
       </c>
       <c r="R9">
-        <v>9.136369499182907</v>
+        <v>96.39050521139001</v>
       </c>
       <c r="S9">
-        <v>0.05543471290928913</v>
+        <v>0.05918223816362789</v>
       </c>
       <c r="T9">
-        <v>0.05543471290928913</v>
+        <v>0.06997966029941068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H10">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I10">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J10">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N10">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O10">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P10">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q10">
-        <v>6.591960455318171</v>
+        <v>7.113227076043333</v>
       </c>
       <c r="R10">
-        <v>6.591960455318171</v>
+        <v>64.01904368438998</v>
       </c>
       <c r="S10">
-        <v>0.03999656924806189</v>
+        <v>0.03930667529989835</v>
       </c>
       <c r="T10">
-        <v>0.03999656924806189</v>
+        <v>0.04647792767453365</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.05746793868505</v>
+        <v>2.213251666666667</v>
       </c>
       <c r="H11">
-        <v>2.05746793868505</v>
+        <v>6.639755</v>
       </c>
       <c r="I11">
-        <v>0.2822953694055769</v>
+        <v>0.2848942161400975</v>
       </c>
       <c r="J11">
-        <v>0.2822953694055769</v>
+        <v>0.3000627940718238</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N11">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O11">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P11">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q11">
-        <v>15.71022422244367</v>
+        <v>16.90012634971833</v>
       </c>
       <c r="R11">
-        <v>15.71022422244367</v>
+        <v>101.40075809831</v>
       </c>
       <c r="S11">
-        <v>0.09532142604232581</v>
+        <v>0.09338768070442914</v>
       </c>
       <c r="T11">
-        <v>0.09532142604232581</v>
+        <v>0.07361711187487323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H12">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I12">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J12">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N12">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O12">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P12">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q12">
-        <v>1.274911294245024</v>
+        <v>1.548678495822222</v>
       </c>
       <c r="R12">
-        <v>1.274911294245024</v>
+        <v>13.9381064624</v>
       </c>
       <c r="S12">
-        <v>0.007735495109693599</v>
+        <v>0.008557775834857692</v>
       </c>
       <c r="T12">
-        <v>0.007735495109693599</v>
+        <v>0.01011908749017031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H13">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I13">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J13">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N13">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O13">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P13">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q13">
-        <v>7.333063850385146</v>
+        <v>8.043979428327111</v>
       </c>
       <c r="R13">
-        <v>7.333063850385146</v>
+        <v>72.39581485494399</v>
       </c>
       <c r="S13">
-        <v>0.04449319714225022</v>
+        <v>0.04444987965774164</v>
       </c>
       <c r="T13">
-        <v>0.04449319714225022</v>
+        <v>0.05255947688558601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H14">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I14">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J14">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N14">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O14">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P14">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q14">
-        <v>5.212658498091762</v>
+        <v>6.10330552268089</v>
       </c>
       <c r="R14">
-        <v>5.212658498091762</v>
+        <v>54.92974970412801</v>
       </c>
       <c r="S14">
-        <v>0.03162768617903708</v>
+        <v>0.03372599326177235</v>
       </c>
       <c r="T14">
-        <v>0.03162768617903708</v>
+        <v>0.0398790857688368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H15">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I15">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J15">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N15">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O15">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P15">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q15">
-        <v>3.760972965199379</v>
+        <v>4.053592021525333</v>
       </c>
       <c r="R15">
-        <v>3.760972965199379</v>
+        <v>36.482328193728</v>
       </c>
       <c r="S15">
-        <v>0.02281961742069114</v>
+        <v>0.02239956965875219</v>
       </c>
       <c r="T15">
-        <v>0.02281961742069114</v>
+        <v>0.02648622837207642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.17386646151922</v>
+        <v>1.261258666666667</v>
       </c>
       <c r="H16">
-        <v>1.17386646151922</v>
+        <v>3.783776</v>
       </c>
       <c r="I16">
-        <v>0.1610606222127438</v>
+        <v>0.1623517580949468</v>
       </c>
       <c r="J16">
-        <v>0.1610606222127438</v>
+        <v>0.1709958272107795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N16">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O16">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P16">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q16">
-        <v>8.963301430329835</v>
+        <v>9.630821088885334</v>
       </c>
       <c r="R16">
-        <v>8.963301430329835</v>
+        <v>57.784926533312</v>
       </c>
       <c r="S16">
-        <v>0.0543846263610718</v>
+        <v>0.05321853968182291</v>
       </c>
       <c r="T16">
-        <v>0.0543846263610718</v>
+        <v>0.04195194869411001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H17">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I17">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J17">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N17">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O17">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P17">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q17">
-        <v>1.636648027489676</v>
+        <v>1.880903614966667</v>
       </c>
       <c r="R17">
-        <v>1.636648027489676</v>
+        <v>16.9281325347</v>
       </c>
       <c r="S17">
-        <v>0.009930324462638964</v>
+        <v>0.01039360431960564</v>
       </c>
       <c r="T17">
-        <v>0.009930324462638964</v>
+        <v>0.01228985118071283</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H18">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I18">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J18">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N18">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O18">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P18">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q18">
-        <v>9.413709440307235</v>
+        <v>9.769587442631332</v>
       </c>
       <c r="R18">
-        <v>9.413709440307235</v>
+        <v>87.92628698368199</v>
       </c>
       <c r="S18">
-        <v>0.05711746665692174</v>
+        <v>0.0539853427025805</v>
       </c>
       <c r="T18">
-        <v>0.05711746665692174</v>
+        <v>0.06383462438559233</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H19">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I19">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J19">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N19">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O19">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P19">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q19">
-        <v>6.691671245983613</v>
+        <v>7.412596902342667</v>
       </c>
       <c r="R19">
-        <v>6.691671245983613</v>
+        <v>66.71337212108401</v>
       </c>
       <c r="S19">
-        <v>0.04060156218918488</v>
+        <v>0.04096095013621923</v>
       </c>
       <c r="T19">
-        <v>0.04060156218918488</v>
+        <v>0.04843401441068461</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H20">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I20">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J20">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N20">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O20">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P20">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q20">
-        <v>4.828091972140427</v>
+        <v>4.923175408875998</v>
       </c>
       <c r="R20">
-        <v>4.828091972140427</v>
+        <v>44.30857867988399</v>
       </c>
       <c r="S20">
-        <v>0.02929433758115675</v>
+        <v>0.02720476306638215</v>
       </c>
       <c r="T20">
-        <v>0.02929433758115675</v>
+        <v>0.03216809868947131</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.50693325681095</v>
+        <v>1.531826</v>
       </c>
       <c r="H21">
-        <v>1.50693325681095</v>
+        <v>4.595478</v>
       </c>
       <c r="I21">
-        <v>0.206759129706232</v>
+        <v>0.1971797306676319</v>
       </c>
       <c r="J21">
-        <v>0.206759129706232</v>
+        <v>0.207678140048179</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N21">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O21">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P21">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q21">
-        <v>11.50650219506593</v>
+        <v>11.696841048706</v>
       </c>
       <c r="R21">
-        <v>11.50650219506593</v>
+        <v>70.18104629223599</v>
       </c>
       <c r="S21">
-        <v>0.06981543881632971</v>
+        <v>0.06463507044284443</v>
       </c>
       <c r="T21">
-        <v>0.06981543881632971</v>
+        <v>0.05095155138171795</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H22">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I22">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J22">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.086078643558</v>
+        <v>1.227883333333333</v>
       </c>
       <c r="N22">
-        <v>1.086078643558</v>
+        <v>3.68365</v>
       </c>
       <c r="O22">
-        <v>0.04802846905357065</v>
+        <v>0.05271132222573729</v>
       </c>
       <c r="P22">
-        <v>0.04802846905357065</v>
+        <v>0.05917739429803119</v>
       </c>
       <c r="Q22">
-        <v>1.264535396458966</v>
+        <v>1.446632590991667</v>
       </c>
       <c r="R22">
-        <v>1.264535396458966</v>
+        <v>8.67979554595</v>
       </c>
       <c r="S22">
-        <v>0.007672539587262319</v>
+        <v>0.007993884762074717</v>
       </c>
       <c r="T22">
-        <v>0.007672539587262319</v>
+        <v>0.006301545390200365</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H23">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I23">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J23">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.24693190475404</v>
+        <v>6.377739666666666</v>
       </c>
       <c r="N23">
-        <v>6.24693190475404</v>
+        <v>19.133219</v>
       </c>
       <c r="O23">
-        <v>0.2762512433577928</v>
+        <v>0.2737874857612962</v>
       </c>
       <c r="P23">
-        <v>0.2762512433577928</v>
+        <v>0.3073728625014814</v>
       </c>
       <c r="Q23">
-        <v>7.27338352492745</v>
+        <v>7.513943554892832</v>
       </c>
       <c r="R23">
-        <v>7.27338352492745</v>
+        <v>45.08366132935699</v>
       </c>
       <c r="S23">
-        <v>0.04413108813293572</v>
+        <v>0.04152097724092636</v>
       </c>
       <c r="T23">
-        <v>0.04413108813293572</v>
+        <v>0.0327308099274209</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H24">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I24">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J24">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.44058900136352</v>
+        <v>4.839059333333334</v>
       </c>
       <c r="N24">
-        <v>4.44058900136352</v>
+        <v>14.517178</v>
       </c>
       <c r="O24">
-        <v>0.1963713150024982</v>
+        <v>0.2077340809703377</v>
       </c>
       <c r="P24">
-        <v>0.1963713150024982</v>
+        <v>0.2332167189067104</v>
       </c>
       <c r="Q24">
-        <v>5.170235145177741</v>
+        <v>5.701145012155668</v>
       </c>
       <c r="R24">
-        <v>5.170235145177741</v>
+        <v>34.206870072934</v>
       </c>
       <c r="S24">
-        <v>0.03137028345581659</v>
+        <v>0.03150371180826797</v>
       </c>
       <c r="T24">
-        <v>0.03137028345581659</v>
+        <v>0.02483424215238097</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H25">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I25">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J25">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.20391891964604</v>
+        <v>3.213925999999999</v>
       </c>
       <c r="N25">
-        <v>3.20391891964604</v>
+        <v>9.641777999999999</v>
       </c>
       <c r="O25">
-        <v>0.141683405336339</v>
+        <v>0.1379693692362262</v>
       </c>
       <c r="P25">
-        <v>0.141683405336339</v>
+        <v>0.1548940041643702</v>
       </c>
       <c r="Q25">
-        <v>3.730364191679849</v>
+        <v>3.786491737789</v>
       </c>
       <c r="R25">
-        <v>3.730364191679849</v>
+        <v>22.718950426734</v>
       </c>
       <c r="S25">
-        <v>0.02263389938764614</v>
+        <v>0.02092361169858896</v>
       </c>
       <c r="T25">
-        <v>0.02263389938764614</v>
+        <v>0.01649399419305181</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.16431291965777</v>
+        <v>1.1781515</v>
       </c>
       <c r="H26">
-        <v>1.16431291965777</v>
+        <v>2.356303</v>
       </c>
       <c r="I26">
-        <v>0.1597498262687577</v>
+        <v>0.1516540360691531</v>
       </c>
       <c r="J26">
-        <v>0.1597498262687577</v>
+        <v>0.106485685369388</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.63570791410934</v>
+        <v>7.635880999999999</v>
       </c>
       <c r="N26">
-        <v>7.63570791410934</v>
+        <v>15.271762</v>
       </c>
       <c r="O26">
-        <v>0.3376655672497995</v>
+        <v>0.3277977418064026</v>
       </c>
       <c r="P26">
-        <v>0.3376655672497995</v>
+        <v>0.2453390201294068</v>
       </c>
       <c r="Q26">
-        <v>8.890353375130587</v>
+        <v>8.996224653971499</v>
       </c>
       <c r="R26">
-        <v>8.890353375130587</v>
+        <v>35.984898615886</v>
       </c>
       <c r="S26">
-        <v>0.05394201570509701</v>
+        <v>0.04971185055929514</v>
       </c>
       <c r="T26">
-        <v>0.05394201570509701</v>
+        <v>0.02612509370633396</v>
       </c>
     </row>
   </sheetData>
